--- a/data/pca/factorExposure/factorExposure_2012-04-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-11.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01669160409615903</v>
+        <v>-0.01686450774488028</v>
       </c>
       <c r="C2">
-        <v>-0.03556887157908145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02916367371268963</v>
+      </c>
+      <c r="D2">
+        <v>0.001787737438701816</v>
+      </c>
+      <c r="E2">
+        <v>-0.01020118843499971</v>
+      </c>
+      <c r="F2">
+        <v>0.007894326166227135</v>
+      </c>
+      <c r="G2">
+        <v>0.003193890093883112</v>
+      </c>
+      <c r="H2">
+        <v>-0.05383235116075116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07554934553753716</v>
+        <v>-0.0885870591014761</v>
       </c>
       <c r="C4">
-        <v>-0.0561027616694867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03926389323138627</v>
+      </c>
+      <c r="D4">
+        <v>0.06600477466789474</v>
+      </c>
+      <c r="E4">
+        <v>-0.01554615238876833</v>
+      </c>
+      <c r="F4">
+        <v>0.02930226495979128</v>
+      </c>
+      <c r="G4">
+        <v>0.01018946503809199</v>
+      </c>
+      <c r="H4">
+        <v>0.04878664640611589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1069387830189019</v>
+        <v>-0.1194931834510964</v>
       </c>
       <c r="C6">
-        <v>-0.05609809796446705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03299130509081272</v>
+      </c>
+      <c r="D6">
+        <v>0.008011151679623315</v>
+      </c>
+      <c r="E6">
+        <v>0.008778264983282826</v>
+      </c>
+      <c r="F6">
+        <v>0.06204793638023569</v>
+      </c>
+      <c r="G6">
+        <v>0.02238254348602148</v>
+      </c>
+      <c r="H6">
+        <v>-0.08017719666648235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0496558170520691</v>
+        <v>-0.06459576418133284</v>
       </c>
       <c r="C7">
-        <v>-0.02885606324736509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0203122654890847</v>
+      </c>
+      <c r="D7">
+        <v>0.04636739791052508</v>
+      </c>
+      <c r="E7">
+        <v>-0.03591521779217458</v>
+      </c>
+      <c r="F7">
+        <v>0.03897960636398695</v>
+      </c>
+      <c r="G7">
+        <v>-0.04168521254082154</v>
+      </c>
+      <c r="H7">
+        <v>0.02320695107500686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03671927190689583</v>
+        <v>-0.04085062659550071</v>
       </c>
       <c r="C8">
-        <v>-0.01264679306886528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.008254220120915369</v>
+      </c>
+      <c r="D8">
+        <v>0.02436358900398921</v>
+      </c>
+      <c r="E8">
+        <v>-0.02963046671581888</v>
+      </c>
+      <c r="F8">
+        <v>0.0474410146791539</v>
+      </c>
+      <c r="G8">
+        <v>0.04378164858836086</v>
+      </c>
+      <c r="H8">
+        <v>0.007604192197789892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06862879765956412</v>
+        <v>-0.07989208834693722</v>
       </c>
       <c r="C9">
-        <v>-0.04679301476363194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.03033420149261404</v>
+      </c>
+      <c r="D9">
+        <v>0.06381858933930085</v>
+      </c>
+      <c r="E9">
+        <v>-0.03692625299258695</v>
+      </c>
+      <c r="F9">
+        <v>0.03297007082986975</v>
+      </c>
+      <c r="G9">
+        <v>0.01238460155931823</v>
+      </c>
+      <c r="H9">
+        <v>0.05911768480468199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02875299645088758</v>
+        <v>-0.03463830312732336</v>
       </c>
       <c r="C10">
-        <v>-0.03331201756496319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.0405819239023933</v>
+      </c>
+      <c r="D10">
+        <v>-0.1729707961797467</v>
+      </c>
+      <c r="E10">
+        <v>-0.04932077162398901</v>
+      </c>
+      <c r="F10">
+        <v>0.04517832097949476</v>
+      </c>
+      <c r="G10">
+        <v>-0.04154421339817354</v>
+      </c>
+      <c r="H10">
+        <v>-0.03538097519651801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07069585672309069</v>
+        <v>-0.07676872858407137</v>
       </c>
       <c r="C11">
-        <v>-0.04785505433837945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02734363619862873</v>
+      </c>
+      <c r="D11">
+        <v>0.06168869336668328</v>
+      </c>
+      <c r="E11">
+        <v>0.003349533563814712</v>
+      </c>
+      <c r="F11">
+        <v>0.02587627437583002</v>
+      </c>
+      <c r="G11">
+        <v>0.002540490471432345</v>
+      </c>
+      <c r="H11">
+        <v>0.1012802428397859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05719901307854274</v>
+        <v>-0.06667181217740788</v>
       </c>
       <c r="C12">
-        <v>-0.05166621296099529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03575380017178904</v>
+      </c>
+      <c r="D12">
+        <v>0.04920067236363754</v>
+      </c>
+      <c r="E12">
+        <v>-0.01337259418009019</v>
+      </c>
+      <c r="F12">
+        <v>0.01548704235810824</v>
+      </c>
+      <c r="G12">
+        <v>0.003705372721475041</v>
+      </c>
+      <c r="H12">
+        <v>0.05793930505545048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05943384542470993</v>
+        <v>-0.06561619259319458</v>
       </c>
       <c r="C13">
-        <v>-0.04237519808781468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02638811314405845</v>
+      </c>
+      <c r="D13">
+        <v>0.04233831787448562</v>
+      </c>
+      <c r="E13">
+        <v>-0.01614843844048005</v>
+      </c>
+      <c r="F13">
+        <v>0.004030987662353621</v>
+      </c>
+      <c r="G13">
+        <v>-5.202100854974062e-05</v>
+      </c>
+      <c r="H13">
+        <v>0.05356769038606744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03303768531731294</v>
+        <v>-0.04171109403336228</v>
       </c>
       <c r="C14">
-        <v>-0.03193717328997456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02779892553128448</v>
+      </c>
+      <c r="D14">
+        <v>0.003679699667545072</v>
+      </c>
+      <c r="E14">
+        <v>-0.02968455060030797</v>
+      </c>
+      <c r="F14">
+        <v>0.01490296366338631</v>
+      </c>
+      <c r="G14">
+        <v>0.01878970619764648</v>
+      </c>
+      <c r="H14">
+        <v>0.05738198794171471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04034667888276585</v>
+        <v>-0.04018533105150558</v>
       </c>
       <c r="C15">
-        <v>-0.01253043704033479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003823589531550045</v>
+      </c>
+      <c r="D15">
+        <v>0.004149671038863913</v>
+      </c>
+      <c r="E15">
+        <v>-0.04208359444712895</v>
+      </c>
+      <c r="F15">
+        <v>-0.005018731911673608</v>
+      </c>
+      <c r="G15">
+        <v>0.02839375376365133</v>
+      </c>
+      <c r="H15">
+        <v>0.04267192503553655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06011310119745381</v>
+        <v>-0.06988328226317832</v>
       </c>
       <c r="C16">
-        <v>-0.04334420924087352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02817102840692659</v>
+      </c>
+      <c r="D16">
+        <v>0.06177103631720175</v>
+      </c>
+      <c r="E16">
+        <v>-0.006712194843006475</v>
+      </c>
+      <c r="F16">
+        <v>0.02291942252691646</v>
+      </c>
+      <c r="G16">
+        <v>-0.002238076940991455</v>
+      </c>
+      <c r="H16">
+        <v>0.0594368861958748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06481169585770405</v>
+        <v>-0.0639497120946837</v>
       </c>
       <c r="C20">
-        <v>-0.03404862249964676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01447036082778982</v>
+      </c>
+      <c r="D20">
+        <v>0.03926977752575063</v>
+      </c>
+      <c r="E20">
+        <v>-0.03250715088465715</v>
+      </c>
+      <c r="F20">
+        <v>0.01859797040032576</v>
+      </c>
+      <c r="G20">
+        <v>0.01456722606559211</v>
+      </c>
+      <c r="H20">
+        <v>0.05641740953731546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02312925711680632</v>
+        <v>-0.02403031598857767</v>
       </c>
       <c r="C21">
-        <v>0.002950349948047257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009899073490965997</v>
+      </c>
+      <c r="D21">
+        <v>0.02827749274726856</v>
+      </c>
+      <c r="E21">
+        <v>-0.03918929670671609</v>
+      </c>
+      <c r="F21">
+        <v>-0.009044233133371177</v>
+      </c>
+      <c r="G21">
+        <v>0.007885692726128178</v>
+      </c>
+      <c r="H21">
+        <v>-0.04797003504565496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07203001845804029</v>
+        <v>-0.06932889840828857</v>
       </c>
       <c r="C22">
-        <v>-0.06195110446415131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04069995364947979</v>
+      </c>
+      <c r="D22">
+        <v>0.07230104021308226</v>
+      </c>
+      <c r="E22">
+        <v>-0.5756139198505386</v>
+      </c>
+      <c r="F22">
+        <v>-0.208324404089767</v>
+      </c>
+      <c r="G22">
+        <v>-0.05703133675648919</v>
+      </c>
+      <c r="H22">
+        <v>-0.1947117081409566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07303167216392017</v>
+        <v>-0.06993750025599559</v>
       </c>
       <c r="C23">
-        <v>-0.06089958097744924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03941368142515639</v>
+      </c>
+      <c r="D23">
+        <v>0.07327455404448077</v>
+      </c>
+      <c r="E23">
+        <v>-0.5751640884585629</v>
+      </c>
+      <c r="F23">
+        <v>-0.2073072200686944</v>
+      </c>
+      <c r="G23">
+        <v>-0.05520698431855995</v>
+      </c>
+      <c r="H23">
+        <v>-0.1902874305618679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06962693682105763</v>
+        <v>-0.07970067315364313</v>
       </c>
       <c r="C24">
-        <v>-0.0517741746402761</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03380826162091753</v>
+      </c>
+      <c r="D24">
+        <v>0.05826004471967585</v>
+      </c>
+      <c r="E24">
+        <v>-0.0174023153755758</v>
+      </c>
+      <c r="F24">
+        <v>0.03223181223478565</v>
+      </c>
+      <c r="G24">
+        <v>0.009596760843063828</v>
+      </c>
+      <c r="H24">
+        <v>0.06766262040732623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07022281266537377</v>
+        <v>-0.07734058735829974</v>
       </c>
       <c r="C25">
-        <v>-0.05777105654025681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03834020418279174</v>
+      </c>
+      <c r="D25">
+        <v>0.05149500519606649</v>
+      </c>
+      <c r="E25">
+        <v>-0.01943068925589434</v>
+      </c>
+      <c r="F25">
+        <v>0.02600299345217389</v>
+      </c>
+      <c r="G25">
+        <v>0.02118328950207042</v>
+      </c>
+      <c r="H25">
+        <v>0.07151101671395339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04547877432209941</v>
+        <v>-0.04751512653527395</v>
       </c>
       <c r="C26">
-        <v>-0.01074731172895328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001823924267923014</v>
+      </c>
+      <c r="D26">
+        <v>0.01925893856834981</v>
+      </c>
+      <c r="E26">
+        <v>-0.05238423234585028</v>
+      </c>
+      <c r="F26">
+        <v>0.0196479129689291</v>
+      </c>
+      <c r="G26">
+        <v>0.0001537740887061364</v>
+      </c>
+      <c r="H26">
+        <v>0.06484766489248406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0535789879500372</v>
+        <v>-0.06313497903603874</v>
       </c>
       <c r="C28">
-        <v>-0.07153574451313623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07985629814163721</v>
+      </c>
+      <c r="D28">
+        <v>-0.3095434967107123</v>
+      </c>
+      <c r="E28">
+        <v>-0.02554936569295943</v>
+      </c>
+      <c r="F28">
+        <v>0.05814092339767719</v>
+      </c>
+      <c r="G28">
+        <v>0.01989844414995327</v>
+      </c>
+      <c r="H28">
+        <v>-0.04038193087790201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04070855239355527</v>
+        <v>-0.04877197635326484</v>
       </c>
       <c r="C29">
-        <v>-0.03243232420682992</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02559154537328475</v>
+      </c>
+      <c r="D29">
+        <v>0.004445891367674944</v>
+      </c>
+      <c r="E29">
+        <v>-0.05531318599936746</v>
+      </c>
+      <c r="F29">
+        <v>0.000781353161890858</v>
+      </c>
+      <c r="G29">
+        <v>0.002118720609279354</v>
+      </c>
+      <c r="H29">
+        <v>0.08348847305379233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1267067917686296</v>
+        <v>-0.1333562542795791</v>
       </c>
       <c r="C30">
-        <v>-0.09695834584441372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06458934069960939</v>
+      </c>
+      <c r="D30">
+        <v>0.06990903399012249</v>
+      </c>
+      <c r="E30">
+        <v>-0.08574774828218301</v>
+      </c>
+      <c r="F30">
+        <v>-0.009698990312574748</v>
+      </c>
+      <c r="G30">
+        <v>0.06709472871289721</v>
+      </c>
+      <c r="H30">
+        <v>-0.01887301044796737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04250542525934656</v>
+        <v>-0.04866235828178227</v>
       </c>
       <c r="C31">
-        <v>-0.02090590552654424</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01226661202691376</v>
+      </c>
+      <c r="D31">
+        <v>0.02462014556075368</v>
+      </c>
+      <c r="E31">
+        <v>-0.02851401951377489</v>
+      </c>
+      <c r="F31">
+        <v>0.008668379036951966</v>
+      </c>
+      <c r="G31">
+        <v>-0.01773954951477203</v>
+      </c>
+      <c r="H31">
+        <v>0.070190364089951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03489807019019723</v>
+        <v>-0.0379044746276594</v>
       </c>
       <c r="C32">
-        <v>-0.02235917779091867</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01660074241949144</v>
+      </c>
+      <c r="D32">
+        <v>0.01165483531328328</v>
+      </c>
+      <c r="E32">
+        <v>-0.07133544051778862</v>
+      </c>
+      <c r="F32">
+        <v>-0.0151015647361695</v>
+      </c>
+      <c r="G32">
+        <v>0.03452947162180647</v>
+      </c>
+      <c r="H32">
+        <v>0.05826178260218495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08145772776257176</v>
+        <v>-0.09529642667941732</v>
       </c>
       <c r="C33">
-        <v>-0.0451180865289871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.0270423678250621</v>
+      </c>
+      <c r="D33">
+        <v>0.05073434126248982</v>
+      </c>
+      <c r="E33">
+        <v>-0.01561542223690103</v>
+      </c>
+      <c r="F33">
+        <v>-0.0001428184773204489</v>
+      </c>
+      <c r="G33">
+        <v>-0.004822131007210725</v>
+      </c>
+      <c r="H33">
+        <v>0.07862138659074193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05558273350592433</v>
+        <v>-0.06175158989878657</v>
       </c>
       <c r="C34">
-        <v>-0.02925589348276439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01374918681671066</v>
+      </c>
+      <c r="D34">
+        <v>0.05411007257340334</v>
+      </c>
+      <c r="E34">
+        <v>-0.01058136426540356</v>
+      </c>
+      <c r="F34">
+        <v>0.01360001996472364</v>
+      </c>
+      <c r="G34">
+        <v>0.008650795818085269</v>
+      </c>
+      <c r="H34">
+        <v>0.05899758059316636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03723331554592076</v>
+        <v>-0.04035996164609171</v>
       </c>
       <c r="C35">
-        <v>-0.009734545806270426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002394276396585395</v>
+      </c>
+      <c r="D35">
+        <v>0.006663308038679564</v>
+      </c>
+      <c r="E35">
+        <v>-0.02018479798614847</v>
+      </c>
+      <c r="F35">
+        <v>-0.01518441244290296</v>
+      </c>
+      <c r="G35">
+        <v>-0.008343192388133757</v>
+      </c>
+      <c r="H35">
+        <v>0.03142140239773716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02059349894809754</v>
+        <v>-0.0271310640825191</v>
       </c>
       <c r="C36">
-        <v>-0.01784079840831401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01387640625250707</v>
+      </c>
+      <c r="D36">
+        <v>0.0134985757475426</v>
+      </c>
+      <c r="E36">
+        <v>-0.04546811285420439</v>
+      </c>
+      <c r="F36">
+        <v>0.01356432496144378</v>
+      </c>
+      <c r="G36">
+        <v>-0.005322633234162961</v>
+      </c>
+      <c r="H36">
+        <v>0.05146958950236681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04054641757990626</v>
+        <v>-0.04392010202303406</v>
       </c>
       <c r="C38">
-        <v>-0.004132719079894703</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002796538157934093</v>
+      </c>
+      <c r="D38">
+        <v>0.01741621403350127</v>
+      </c>
+      <c r="E38">
+        <v>-0.05899350700116261</v>
+      </c>
+      <c r="F38">
+        <v>-0.01945455665723259</v>
+      </c>
+      <c r="G38">
+        <v>0.01585183099489486</v>
+      </c>
+      <c r="H38">
+        <v>0.02534107481844134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09130021320616603</v>
+        <v>-0.1030406296964598</v>
       </c>
       <c r="C39">
-        <v>-0.07297506592181503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04926913314900139</v>
+      </c>
+      <c r="D39">
+        <v>0.06630845071560779</v>
+      </c>
+      <c r="E39">
+        <v>0.0001255136142685564</v>
+      </c>
+      <c r="F39">
+        <v>0.008431307314976547</v>
+      </c>
+      <c r="G39">
+        <v>0.03924526937659238</v>
+      </c>
+      <c r="H39">
+        <v>0.07127640585153493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07315985630954193</v>
+        <v>-0.0718175401561547</v>
       </c>
       <c r="C40">
-        <v>-0.04084710401890836</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01935596153121072</v>
+      </c>
+      <c r="D40">
+        <v>0.01221749562929923</v>
+      </c>
+      <c r="E40">
+        <v>-0.01943897030370525</v>
+      </c>
+      <c r="F40">
+        <v>-0.05691713726772852</v>
+      </c>
+      <c r="G40">
+        <v>0.04824932648148179</v>
+      </c>
+      <c r="H40">
+        <v>-0.07845766750290162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04080821021707058</v>
+        <v>-0.04372976839799817</v>
       </c>
       <c r="C41">
-        <v>-0.007089869341467003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.0009956830243720357</v>
+      </c>
+      <c r="D41">
+        <v>0.03418239714525636</v>
+      </c>
+      <c r="E41">
+        <v>-0.003268393762033936</v>
+      </c>
+      <c r="F41">
+        <v>-0.01556393561268845</v>
+      </c>
+      <c r="G41">
+        <v>0.01651765628694698</v>
+      </c>
+      <c r="H41">
+        <v>0.03566060916238299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04633770237995398</v>
+        <v>-0.0572333505512431</v>
       </c>
       <c r="C43">
-        <v>-0.02609694142141802</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01758817347604619</v>
+      </c>
+      <c r="D43">
+        <v>0.02498529727700454</v>
+      </c>
+      <c r="E43">
+        <v>-0.01888947166078732</v>
+      </c>
+      <c r="F43">
+        <v>0.01118619849005861</v>
+      </c>
+      <c r="G43">
+        <v>-0.008287370779398425</v>
+      </c>
+      <c r="H43">
+        <v>0.05179146007395054</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09456195103306568</v>
+        <v>-0.09379657832224333</v>
       </c>
       <c r="C44">
-        <v>-0.09647230238600653</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06510364135331323</v>
+      </c>
+      <c r="D44">
+        <v>0.0623835211077674</v>
+      </c>
+      <c r="E44">
+        <v>-0.09519265932277479</v>
+      </c>
+      <c r="F44">
+        <v>0.04005738696562596</v>
+      </c>
+      <c r="G44">
+        <v>0.02898193753521313</v>
+      </c>
+      <c r="H44">
+        <v>0.01227742784249232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02522955426657311</v>
+        <v>-0.03245218281659848</v>
       </c>
       <c r="C46">
-        <v>-0.01415008645731856</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01026714916795756</v>
+      </c>
+      <c r="D46">
+        <v>0.03042637763797155</v>
+      </c>
+      <c r="E46">
+        <v>-0.02760951462430137</v>
+      </c>
+      <c r="F46">
+        <v>0.01418577956268607</v>
+      </c>
+      <c r="G46">
+        <v>0.007922991654403105</v>
+      </c>
+      <c r="H46">
+        <v>0.03293430062755027</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02891076312556283</v>
+        <v>-0.03705894418009716</v>
       </c>
       <c r="C47">
-        <v>-0.02674399044476451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.021514254735129</v>
+      </c>
+      <c r="D47">
+        <v>0.01408210631257526</v>
+      </c>
+      <c r="E47">
+        <v>-0.05375060270053973</v>
+      </c>
+      <c r="F47">
+        <v>0.005713362669583837</v>
+      </c>
+      <c r="G47">
+        <v>-0.03918744985504215</v>
+      </c>
+      <c r="H47">
+        <v>0.0225887538423706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03121512196085856</v>
+        <v>-0.03662653822197398</v>
       </c>
       <c r="C48">
-        <v>-0.01620322898570035</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.009243188639112486</v>
+      </c>
+      <c r="D48">
+        <v>0.02012667980998253</v>
+      </c>
+      <c r="E48">
+        <v>-0.04330492266381176</v>
+      </c>
+      <c r="F48">
+        <v>0.001073230726112025</v>
+      </c>
+      <c r="G48">
+        <v>0.01447094774768419</v>
+      </c>
+      <c r="H48">
+        <v>0.05014709994988922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1620174796554413</v>
+        <v>-0.1906630513979364</v>
       </c>
       <c r="C49">
-        <v>-0.06499197670876135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03502432728508367</v>
+      </c>
+      <c r="D49">
+        <v>0.0270877660087604</v>
+      </c>
+      <c r="E49">
+        <v>0.1504434675661444</v>
+      </c>
+      <c r="F49">
+        <v>0.07386578405603636</v>
+      </c>
+      <c r="G49">
+        <v>-0.07456933994055703</v>
+      </c>
+      <c r="H49">
+        <v>-0.2310374004894848</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03805310481363858</v>
+        <v>-0.0450810703246999</v>
       </c>
       <c r="C50">
-        <v>-0.02400543954714597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01647102699914329</v>
+      </c>
+      <c r="D50">
+        <v>0.03193516171752432</v>
+      </c>
+      <c r="E50">
+        <v>-0.05421924926682647</v>
+      </c>
+      <c r="F50">
+        <v>0.009157904331602774</v>
+      </c>
+      <c r="G50">
+        <v>-0.01346077979091648</v>
+      </c>
+      <c r="H50">
+        <v>0.06566658203582008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02600075829343093</v>
+        <v>-0.02967929443114731</v>
       </c>
       <c r="C51">
-        <v>-0.01084248628337279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.006373834415865799</v>
+      </c>
+      <c r="D51">
+        <v>0.0202755617625431</v>
+      </c>
+      <c r="E51">
+        <v>-0.01526356710594243</v>
+      </c>
+      <c r="F51">
+        <v>0.01537988087855222</v>
+      </c>
+      <c r="G51">
+        <v>0.002617185874524927</v>
+      </c>
+      <c r="H51">
+        <v>-0.006059980180657273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1516654538471747</v>
+        <v>-0.1625280369033419</v>
       </c>
       <c r="C53">
-        <v>-0.08506093498116978</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05411835438692213</v>
+      </c>
+      <c r="D53">
+        <v>0.01667417986788928</v>
+      </c>
+      <c r="E53">
+        <v>0.02273949004926609</v>
+      </c>
+      <c r="F53">
+        <v>0.01387597147294613</v>
+      </c>
+      <c r="G53">
+        <v>0.002950148219095389</v>
+      </c>
+      <c r="H53">
+        <v>0.1480115220195449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05585201863277182</v>
+        <v>-0.05803993317897611</v>
       </c>
       <c r="C54">
-        <v>-0.02589498380334228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01311101732041956</v>
+      </c>
+      <c r="D54">
+        <v>0.01667362160747617</v>
+      </c>
+      <c r="E54">
+        <v>-0.050434273701153</v>
+      </c>
+      <c r="F54">
+        <v>0.006034712171948265</v>
+      </c>
+      <c r="G54">
+        <v>0.01697150324996079</v>
+      </c>
+      <c r="H54">
+        <v>0.0560208760733786</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09998208537726194</v>
+        <v>-0.1042493587246788</v>
       </c>
       <c r="C55">
-        <v>-0.0594384735019546</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03723194544667965</v>
+      </c>
+      <c r="D55">
+        <v>0.02314240903497858</v>
+      </c>
+      <c r="E55">
+        <v>-0.01765407970720201</v>
+      </c>
+      <c r="F55">
+        <v>0.01401872474027394</v>
+      </c>
+      <c r="G55">
+        <v>0.01273745759515465</v>
+      </c>
+      <c r="H55">
+        <v>0.134880304972822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1449733254486275</v>
+        <v>-0.1595316136641744</v>
       </c>
       <c r="C56">
-        <v>-0.09465881744860628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06451447114596945</v>
+      </c>
+      <c r="D56">
+        <v>0.01857038917345994</v>
+      </c>
+      <c r="E56">
+        <v>0.02422862477362053</v>
+      </c>
+      <c r="F56">
+        <v>0.03165777972543777</v>
+      </c>
+      <c r="G56">
+        <v>-0.003103170941342387</v>
+      </c>
+      <c r="H56">
+        <v>0.1528209878253416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1196437815236694</v>
+        <v>-0.09765194791032891</v>
       </c>
       <c r="C58">
-        <v>-0.006556698700061415</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03375122571665842</v>
+      </c>
+      <c r="D58">
+        <v>0.03923476644747464</v>
+      </c>
+      <c r="E58">
+        <v>-0.1648527089007812</v>
+      </c>
+      <c r="F58">
+        <v>-0.003541270799854148</v>
+      </c>
+      <c r="G58">
+        <v>-0.06634660343454188</v>
+      </c>
+      <c r="H58">
+        <v>-0.1763627415168116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1141016073683027</v>
+        <v>-0.1369364592431473</v>
       </c>
       <c r="C59">
-        <v>-0.07690626939028966</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08287763313075269</v>
+      </c>
+      <c r="D59">
+        <v>-0.3622123824429735</v>
+      </c>
+      <c r="E59">
+        <v>-0.0278128386817462</v>
+      </c>
+      <c r="F59">
+        <v>0.01307178800625146</v>
+      </c>
+      <c r="G59">
+        <v>-0.04450219872434453</v>
+      </c>
+      <c r="H59">
+        <v>0.00419586131053634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2019919985100349</v>
+        <v>-0.2315099738986128</v>
       </c>
       <c r="C60">
-        <v>-0.1067711462928308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.0678241620622444</v>
+      </c>
+      <c r="D60">
+        <v>0.03675866397226205</v>
+      </c>
+      <c r="E60">
+        <v>0.09708320060392092</v>
+      </c>
+      <c r="F60">
+        <v>0.06864865795330853</v>
+      </c>
+      <c r="G60">
+        <v>0.01043961392475602</v>
+      </c>
+      <c r="H60">
+        <v>-0.1753153810079015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07900598036712575</v>
+        <v>-0.08801672502080488</v>
       </c>
       <c r="C61">
-        <v>-0.05239027178693825</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03544093379451283</v>
+      </c>
+      <c r="D61">
+        <v>0.04431690390424989</v>
+      </c>
+      <c r="E61">
+        <v>0.0001181251366682699</v>
+      </c>
+      <c r="F61">
+        <v>0.002260994898696113</v>
+      </c>
+      <c r="G61">
+        <v>0.003964311222947141</v>
+      </c>
+      <c r="H61">
+        <v>0.07258177766229802</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.128501137191895</v>
+        <v>-0.1404243030856377</v>
       </c>
       <c r="C62">
-        <v>-0.07102091746915266</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04389249816936722</v>
+      </c>
+      <c r="D62">
+        <v>0.0276473626182181</v>
+      </c>
+      <c r="E62">
+        <v>0.0608273266694366</v>
+      </c>
+      <c r="F62">
+        <v>0.01500173466812094</v>
+      </c>
+      <c r="G62">
+        <v>0.03425103705153407</v>
+      </c>
+      <c r="H62">
+        <v>0.1535394168020961</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05107874278068786</v>
+        <v>-0.05049110592107409</v>
       </c>
       <c r="C63">
-        <v>-0.02655561990118059</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.0140814769988199</v>
+      </c>
+      <c r="D63">
+        <v>0.01974893795664361</v>
+      </c>
+      <c r="E63">
+        <v>-0.05354881636579314</v>
+      </c>
+      <c r="F63">
+        <v>-0.01108967080667426</v>
+      </c>
+      <c r="G63">
+        <v>0.03504392122054879</v>
+      </c>
+      <c r="H63">
+        <v>0.06140855811955669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1078736203757683</v>
+        <v>-0.1097085159037994</v>
       </c>
       <c r="C64">
-        <v>-0.02967581125005775</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.005559022148586936</v>
+      </c>
+      <c r="D64">
+        <v>0.0403758660804367</v>
+      </c>
+      <c r="E64">
+        <v>-0.04393137385930412</v>
+      </c>
+      <c r="F64">
+        <v>0.04502525499514957</v>
+      </c>
+      <c r="G64">
+        <v>0.05005782081301805</v>
+      </c>
+      <c r="H64">
+        <v>0.05912391299020672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1204171929497206</v>
+        <v>-0.1272660176165396</v>
       </c>
       <c r="C65">
-        <v>-0.06239077276421134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03832464170145391</v>
+      </c>
+      <c r="D65">
+        <v>-0.001434010678577893</v>
+      </c>
+      <c r="E65">
+        <v>-0.007686764373257889</v>
+      </c>
+      <c r="F65">
+        <v>0.06830962177607255</v>
+      </c>
+      <c r="G65">
+        <v>0.05141824441711455</v>
+      </c>
+      <c r="H65">
+        <v>-0.09938104210047659</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1421689487648135</v>
+        <v>-0.154592280742063</v>
       </c>
       <c r="C66">
-        <v>-0.07864982776164406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04516933069992971</v>
+      </c>
+      <c r="D66">
+        <v>0.1017595136078464</v>
+      </c>
+      <c r="E66">
+        <v>0.02644070439020131</v>
+      </c>
+      <c r="F66">
+        <v>0.01648904077697715</v>
+      </c>
+      <c r="G66">
+        <v>0.05125612613618408</v>
+      </c>
+      <c r="H66">
+        <v>0.1535709834894413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07315056519684361</v>
+        <v>-0.08310080495088795</v>
       </c>
       <c r="C67">
-        <v>-0.01637065779486313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.004108550511621055</v>
+      </c>
+      <c r="D67">
+        <v>0.03113702353379879</v>
+      </c>
+      <c r="E67">
+        <v>-0.02909260468844328</v>
+      </c>
+      <c r="F67">
+        <v>0.008923066847569997</v>
+      </c>
+      <c r="G67">
+        <v>-0.006009183083744596</v>
+      </c>
+      <c r="H67">
+        <v>0.02823132876705891</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05840256092467232</v>
+        <v>-0.05886702642304951</v>
       </c>
       <c r="C68">
-        <v>-0.04946650046473538</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05452944261224701</v>
+      </c>
+      <c r="D68">
+        <v>-0.2704096930782399</v>
+      </c>
+      <c r="E68">
+        <v>-0.03871969565958097</v>
+      </c>
+      <c r="F68">
+        <v>0.0149271968032143</v>
+      </c>
+      <c r="G68">
+        <v>-0.01628702388790594</v>
+      </c>
+      <c r="H68">
+        <v>0.009299833246179688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05242473441757081</v>
+        <v>-0.05288212981972148</v>
       </c>
       <c r="C69">
-        <v>-0.02042194742584465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.005790518851986537</v>
+      </c>
+      <c r="D69">
+        <v>0.01640018526866458</v>
+      </c>
+      <c r="E69">
+        <v>-0.02651958679775321</v>
+      </c>
+      <c r="F69">
+        <v>-0.007554424027180528</v>
+      </c>
+      <c r="G69">
+        <v>-0.01081459865419533</v>
+      </c>
+      <c r="H69">
+        <v>0.05050639324872112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004872946705086838</v>
+        <v>-0.02649593805796485</v>
       </c>
       <c r="C70">
-        <v>0.004655794590195016</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0005331924215868425</v>
+      </c>
+      <c r="D70">
+        <v>0.0004355030901364006</v>
+      </c>
+      <c r="E70">
+        <v>0.02668363123523856</v>
+      </c>
+      <c r="F70">
+        <v>0.03160772894470412</v>
+      </c>
+      <c r="G70">
+        <v>-0.02367363849938417</v>
+      </c>
+      <c r="H70">
+        <v>-0.04894396393081902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05993440429295018</v>
+        <v>-0.06195591739190988</v>
       </c>
       <c r="C71">
-        <v>-0.04893551764986215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05659843474867808</v>
+      </c>
+      <c r="D71">
+        <v>-0.2975727768158139</v>
+      </c>
+      <c r="E71">
+        <v>-0.03295676010385468</v>
+      </c>
+      <c r="F71">
+        <v>0.04501853872797524</v>
+      </c>
+      <c r="G71">
+        <v>-0.003460927682646329</v>
+      </c>
+      <c r="H71">
+        <v>0.01862064317023662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1369589178752937</v>
+        <v>-0.1480342177352782</v>
       </c>
       <c r="C72">
-        <v>-0.06530585473326352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03676072120108419</v>
+      </c>
+      <c r="D72">
+        <v>-0.01297705954830402</v>
+      </c>
+      <c r="E72">
+        <v>0.1145059118884355</v>
+      </c>
+      <c r="F72">
+        <v>-0.1569340470373495</v>
+      </c>
+      <c r="G72">
+        <v>0.1165854220959832</v>
+      </c>
+      <c r="H72">
+        <v>0.01259699168447271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2658529806590918</v>
+        <v>-0.284568239024922</v>
       </c>
       <c r="C73">
-        <v>-0.1165328943281375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05069687959180342</v>
+      </c>
+      <c r="D73">
+        <v>0.095187396496158</v>
+      </c>
+      <c r="E73">
+        <v>0.2277477307566225</v>
+      </c>
+      <c r="F73">
+        <v>0.1225270201225998</v>
+      </c>
+      <c r="G73">
+        <v>-0.2157839657507701</v>
+      </c>
+      <c r="H73">
+        <v>-0.507248616331509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07957171875504106</v>
+        <v>-0.09262448704213555</v>
       </c>
       <c r="C74">
-        <v>-0.0800849582526996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.0600752280034727</v>
+      </c>
+      <c r="D74">
+        <v>0.03090185804674418</v>
+      </c>
+      <c r="E74">
+        <v>0.005541239051927346</v>
+      </c>
+      <c r="F74">
+        <v>-0.01148130123925634</v>
+      </c>
+      <c r="G74">
+        <v>-0.02920580459795711</v>
+      </c>
+      <c r="H74">
+        <v>0.1190853806046635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09554366543834936</v>
+        <v>-0.1015167160343049</v>
       </c>
       <c r="C75">
-        <v>-0.05550480934921134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.028198109633227</v>
+      </c>
+      <c r="D75">
+        <v>0.01094778097867479</v>
+      </c>
+      <c r="E75">
+        <v>-0.009674384942605554</v>
+      </c>
+      <c r="F75">
+        <v>0.02990064369884742</v>
+      </c>
+      <c r="G75">
+        <v>-0.009150791127322623</v>
+      </c>
+      <c r="H75">
+        <v>0.1145829758941258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1282724481810576</v>
+        <v>-0.1397694121859292</v>
       </c>
       <c r="C76">
-        <v>-0.087263382213986</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05761359181687188</v>
+      </c>
+      <c r="D76">
+        <v>0.04970578971947937</v>
+      </c>
+      <c r="E76">
+        <v>-0.03148440008824551</v>
+      </c>
+      <c r="F76">
+        <v>0.04523108765717816</v>
+      </c>
+      <c r="G76">
+        <v>0.007521548303358362</v>
+      </c>
+      <c r="H76">
+        <v>0.1493220765137521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1174548314133112</v>
+        <v>-0.1125181512481034</v>
       </c>
       <c r="C77">
-        <v>-0.02702372825442535</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.00151468681160469</v>
+      </c>
+      <c r="D77">
+        <v>0.01059673437420746</v>
+      </c>
+      <c r="E77">
+        <v>-0.004176653255613971</v>
+      </c>
+      <c r="F77">
+        <v>0.1647986872935411</v>
+      </c>
+      <c r="G77">
+        <v>0.8712289088516602</v>
+      </c>
+      <c r="H77">
+        <v>-0.2373391560975021</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0963116721701609</v>
+        <v>-0.135271162205703</v>
       </c>
       <c r="C78">
-        <v>-0.0431656338665017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03436050888691615</v>
+      </c>
+      <c r="D78">
+        <v>0.09615048086628916</v>
+      </c>
+      <c r="E78">
+        <v>-0.05939275941289084</v>
+      </c>
+      <c r="F78">
+        <v>0.02174363357616373</v>
+      </c>
+      <c r="G78">
+        <v>0.05092228415054846</v>
+      </c>
+      <c r="H78">
+        <v>-0.0527599877541501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1449444881353364</v>
+        <v>-0.1514530520062648</v>
       </c>
       <c r="C79">
-        <v>-0.08418861298932111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04704676926139304</v>
+      </c>
+      <c r="D79">
+        <v>0.02651757535340398</v>
+      </c>
+      <c r="E79">
+        <v>0.01001900481720559</v>
+      </c>
+      <c r="F79">
+        <v>0.01456020133488218</v>
+      </c>
+      <c r="G79">
+        <v>-0.01794996942140467</v>
+      </c>
+      <c r="H79">
+        <v>0.1629453238986519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04399634257948891</v>
+        <v>-0.04259066853443053</v>
       </c>
       <c r="C80">
-        <v>-0.01670030543257229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006055557602887967</v>
+      </c>
+      <c r="D80">
+        <v>0.01980754981289408</v>
+      </c>
+      <c r="E80">
+        <v>0.004608925891797994</v>
+      </c>
+      <c r="F80">
+        <v>-0.01052516322195519</v>
+      </c>
+      <c r="G80">
+        <v>-0.03034559756585638</v>
+      </c>
+      <c r="H80">
+        <v>0.04779190277084971</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1181554335316229</v>
+        <v>-0.1221586020755243</v>
       </c>
       <c r="C81">
-        <v>-0.06889353226015149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03812627105496249</v>
+      </c>
+      <c r="D81">
+        <v>0.02336545165322158</v>
+      </c>
+      <c r="E81">
+        <v>-0.02940994082340218</v>
+      </c>
+      <c r="F81">
+        <v>0.008345106447663463</v>
+      </c>
+      <c r="G81">
+        <v>-0.03207135662170209</v>
+      </c>
+      <c r="H81">
+        <v>0.1619633433920528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1269121202314155</v>
+        <v>-0.1300307993235748</v>
       </c>
       <c r="C82">
-        <v>-0.08155948762371165</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04957073104791963</v>
+      </c>
+      <c r="D82">
+        <v>0.02631306020736987</v>
+      </c>
+      <c r="E82">
+        <v>0.01248148792065499</v>
+      </c>
+      <c r="F82">
+        <v>0.05469763779165079</v>
+      </c>
+      <c r="G82">
+        <v>-0.02977912421485254</v>
+      </c>
+      <c r="H82">
+        <v>0.1788899328896216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07958478072878844</v>
+        <v>-0.08769034346287792</v>
       </c>
       <c r="C83">
-        <v>0.0001054684270932939</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01779736469705486</v>
+      </c>
+      <c r="D83">
+        <v>0.03875705618299054</v>
+      </c>
+      <c r="E83">
+        <v>-0.02101715496980011</v>
+      </c>
+      <c r="F83">
+        <v>0.05127381093381842</v>
+      </c>
+      <c r="G83">
+        <v>-0.09558000272688177</v>
+      </c>
+      <c r="H83">
+        <v>-0.06402749220510903</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02909913999483987</v>
+        <v>-0.03943061917246763</v>
       </c>
       <c r="C84">
-        <v>-0.02606298042500386</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02061816704430227</v>
+      </c>
+      <c r="D84">
+        <v>0.02938160872068081</v>
+      </c>
+      <c r="E84">
+        <v>-0.02579996167377423</v>
+      </c>
+      <c r="F84">
+        <v>-0.05378223472965089</v>
+      </c>
+      <c r="G84">
+        <v>-0.05392172519966346</v>
+      </c>
+      <c r="H84">
+        <v>0.02707482260030721</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1177388128672187</v>
+        <v>-0.1191871093448846</v>
       </c>
       <c r="C85">
-        <v>-0.06312251601661552</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03156688948160158</v>
+      </c>
+      <c r="D85">
+        <v>0.02366639270154762</v>
+      </c>
+      <c r="E85">
+        <v>-0.02062401564039958</v>
+      </c>
+      <c r="F85">
+        <v>0.04067360626040586</v>
+      </c>
+      <c r="G85">
+        <v>-0.008078661597799231</v>
+      </c>
+      <c r="H85">
+        <v>0.1405461128217807</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05091313542568654</v>
+        <v>-0.05836278703275657</v>
       </c>
       <c r="C86">
-        <v>-0.03146055154187548</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01973314543421636</v>
+      </c>
+      <c r="D86">
+        <v>0.02330824933323743</v>
+      </c>
+      <c r="E86">
+        <v>-0.05981760117018028</v>
+      </c>
+      <c r="F86">
+        <v>0.02933693045263422</v>
+      </c>
+      <c r="G86">
+        <v>-0.006160965585694831</v>
+      </c>
+      <c r="H86">
+        <v>0.01372452432123761</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1218934374880227</v>
+        <v>-0.1229110336307237</v>
       </c>
       <c r="C87">
-        <v>-0.07227565123415314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03447348476614086</v>
+      </c>
+      <c r="D87">
+        <v>0.07674251370918277</v>
+      </c>
+      <c r="E87">
+        <v>-0.01838919036072481</v>
+      </c>
+      <c r="F87">
+        <v>-0.006903505398194533</v>
+      </c>
+      <c r="G87">
+        <v>0.1093168196126508</v>
+      </c>
+      <c r="H87">
+        <v>-0.02363916914325926</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05335283753659935</v>
+        <v>-0.06094245022593152</v>
       </c>
       <c r="C88">
-        <v>-0.03123216329601152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01971006406038715</v>
+      </c>
+      <c r="D88">
+        <v>0.02879828481978499</v>
+      </c>
+      <c r="E88">
+        <v>-0.02224327961717865</v>
+      </c>
+      <c r="F88">
+        <v>0.007291625235262549</v>
+      </c>
+      <c r="G88">
+        <v>0.01658732490569385</v>
+      </c>
+      <c r="H88">
+        <v>0.06152972523007356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08090371240444878</v>
+        <v>-0.0929620045853294</v>
       </c>
       <c r="C89">
-        <v>-0.06416086929273791</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07461359397371405</v>
+      </c>
+      <c r="D89">
+        <v>-0.3427651570047867</v>
+      </c>
+      <c r="E89">
+        <v>-0.0684842713523193</v>
+      </c>
+      <c r="F89">
+        <v>0.07959322199912743</v>
+      </c>
+      <c r="G89">
+        <v>-0.02119487206002743</v>
+      </c>
+      <c r="H89">
+        <v>0.01158624654281942</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07219329745571208</v>
+        <v>-0.07966808492830939</v>
       </c>
       <c r="C90">
-        <v>-0.05765051047309586</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06486889395037952</v>
+      </c>
+      <c r="D90">
+        <v>-0.3112820906448153</v>
+      </c>
+      <c r="E90">
+        <v>-0.06336842389315799</v>
+      </c>
+      <c r="F90">
+        <v>0.003236798619898878</v>
+      </c>
+      <c r="G90">
+        <v>-0.005262050278104394</v>
+      </c>
+      <c r="H90">
+        <v>0.009658333786304676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08373030328367023</v>
+        <v>-0.08943739480441913</v>
       </c>
       <c r="C91">
-        <v>-0.05559259577518272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03340311509920319</v>
+      </c>
+      <c r="D91">
+        <v>0.03064172948730448</v>
+      </c>
+      <c r="E91">
+        <v>-0.01453002135691255</v>
+      </c>
+      <c r="F91">
+        <v>0.004512840431310498</v>
+      </c>
+      <c r="G91">
+        <v>-0.04621125156850789</v>
+      </c>
+      <c r="H91">
+        <v>0.07557434551508824</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07408597815523402</v>
+        <v>-0.08064264583813577</v>
       </c>
       <c r="C92">
-        <v>-0.07184598945204518</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.07862228332895435</v>
+      </c>
+      <c r="D92">
+        <v>-0.3399886924350697</v>
+      </c>
+      <c r="E92">
+        <v>-0.05049825190409728</v>
+      </c>
+      <c r="F92">
+        <v>0.03487390143569563</v>
+      </c>
+      <c r="G92">
+        <v>0.002796017810506919</v>
+      </c>
+      <c r="H92">
+        <v>0.02731360170187541</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06496466159192812</v>
+        <v>-0.07804118419512428</v>
       </c>
       <c r="C93">
-        <v>-0.06299196647528753</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07530233934201266</v>
+      </c>
+      <c r="D93">
+        <v>-0.30937340477021</v>
+      </c>
+      <c r="E93">
+        <v>-0.03508848493968231</v>
+      </c>
+      <c r="F93">
+        <v>0.04179673132966263</v>
+      </c>
+      <c r="G93">
+        <v>0.006815321268201454</v>
+      </c>
+      <c r="H93">
+        <v>-0.01087951555317664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1330814176675128</v>
+        <v>-0.1281448393781458</v>
       </c>
       <c r="C94">
-        <v>-0.06110186771781709</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02226963037650908</v>
+      </c>
+      <c r="D94">
+        <v>0.04571212561032385</v>
+      </c>
+      <c r="E94">
+        <v>0.004211736790476587</v>
+      </c>
+      <c r="F94">
+        <v>0.01875285365999236</v>
+      </c>
+      <c r="G94">
+        <v>-0.03769788358100537</v>
+      </c>
+      <c r="H94">
+        <v>0.1060136190047733</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1177070033832633</v>
+        <v>-0.1289342340740627</v>
       </c>
       <c r="C95">
-        <v>-0.03920408841915617</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.010009300551576</v>
+      </c>
+      <c r="D95">
+        <v>0.05765869740143479</v>
+      </c>
+      <c r="E95">
+        <v>-0.01195433787170742</v>
+      </c>
+      <c r="F95">
+        <v>0.0531982174833022</v>
+      </c>
+      <c r="G95">
+        <v>-0.01924562917204103</v>
+      </c>
+      <c r="H95">
+        <v>-0.01665218400411065</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2006258021227445</v>
+        <v>-0.2098486672185233</v>
       </c>
       <c r="C97">
-        <v>-0.04672441276064142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.006635175353140832</v>
+      </c>
+      <c r="D97">
+        <v>-0.08721561520578618</v>
+      </c>
+      <c r="E97">
+        <v>0.2821548632096498</v>
+      </c>
+      <c r="F97">
+        <v>-0.8738663962299369</v>
+      </c>
+      <c r="G97">
+        <v>0.1094241274392102</v>
+      </c>
+      <c r="H97">
+        <v>-0.01579058202743468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2454559206735982</v>
+        <v>-0.2741461371125619</v>
       </c>
       <c r="C98">
-        <v>-0.08775296891059993</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.0374653979055313</v>
+      </c>
+      <c r="D98">
+        <v>0.06501850739159701</v>
+      </c>
+      <c r="E98">
+        <v>0.1611344913007786</v>
+      </c>
+      <c r="F98">
+        <v>0.06993244916000994</v>
+      </c>
+      <c r="G98">
+        <v>-0.2847035345611779</v>
+      </c>
+      <c r="H98">
+        <v>-0.2001544386545619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.469948342557177</v>
+        <v>-0.2860210420035745</v>
       </c>
       <c r="C99">
-        <v>0.8681841318449046</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9371183571536641</v>
+      </c>
+      <c r="D99">
+        <v>-0.118762157482601</v>
+      </c>
+      <c r="E99">
+        <v>-0.06578529500849144</v>
+      </c>
+      <c r="F99">
+        <v>0.04172334450730602</v>
+      </c>
+      <c r="G99">
+        <v>-0.01188453365775928</v>
+      </c>
+      <c r="H99">
+        <v>0.06203496414599208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04077732521399551</v>
+        <v>-0.04887890415395406</v>
       </c>
       <c r="C101">
-        <v>-0.0324174967125768</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02566760738343641</v>
+      </c>
+      <c r="D101">
+        <v>0.004971112794322763</v>
+      </c>
+      <c r="E101">
+        <v>-0.05439848580207558</v>
+      </c>
+      <c r="F101">
+        <v>0.0002557455626257452</v>
+      </c>
+      <c r="G101">
+        <v>0.001976941640320648</v>
+      </c>
+      <c r="H101">
+        <v>0.08292398351262033</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
